--- a/BackTest/2019-10-27 BackTest ADA.xlsx
+++ b/BackTest/2019-10-27 BackTest ADA.xlsx
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -6716,13 +6716,17 @@
         <v>46.23333333333323</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K181" t="n">
+        <v>46.2</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
@@ -6751,14 +6755,22 @@
         <v>46.2999999999999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K182" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6786,14 +6798,22 @@
         <v>46.36666666666656</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="K183" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +6841,22 @@
         <v>46.36666666666656</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="K184" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +6890,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +6931,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +6972,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7013,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7054,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7095,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7136,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7177,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7218,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7259,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7300,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7341,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +7382,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7423,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7464,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7505,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7546,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7587,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7628,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7669,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7710,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7751,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7792,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7833,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7874,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +7956,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7801,18 +7991,20 @@
         <v>46.13333333333321</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>46.2</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>46.2</v>
       </c>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7840,20 +8032,18 @@
         <v>46.13333333333321</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>46.1</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>46.2</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -7883,20 +8073,18 @@
         <v>46.13333333333321</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>46.1</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
         <v>46.2</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -7926,18 +8114,20 @@
         <v>46.06666666666655</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>46</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>46</v>
-      </c>
-      <c r="L215" t="inlineStr"/>
+        <v>46.2</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7965,20 +8155,18 @@
         <v>45.99999999999989</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>45.9</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -8008,20 +8196,18 @@
         <v>45.96666666666655</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>46</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M217" t="n">
@@ -8051,18 +8237,20 @@
         <v>45.93333333333322</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>45.9</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="L218" t="inlineStr"/>
+        <v>46.2</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8090,20 +8278,18 @@
         <v>45.96666666666655</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>45.9</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -8133,16 +8319,14 @@
         <v>45.96666666666655</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>46</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8176,16 +8360,14 @@
         <v>45.99999999999989</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>46</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8219,16 +8401,14 @@
         <v>45.99999999999989</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>46</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8262,16 +8442,14 @@
         <v>45.99999999999989</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>46</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8305,16 +8483,14 @@
         <v>46.03333333333322</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>46.1</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8348,16 +8524,14 @@
         <v>46.09999999999989</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>46.2</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8391,16 +8565,14 @@
         <v>46.23333333333323</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>46.2</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8434,16 +8606,14 @@
         <v>46.33333333333323</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>46.4</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8477,16 +8647,14 @@
         <v>46.3999999999999</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>46.4</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8520,16 +8688,14 @@
         <v>46.46666666666656</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>46.5</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8570,7 +8736,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8611,7 +8777,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8652,7 +8818,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8693,7 +8859,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -8734,7 +8900,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -8775,7 +8941,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8816,7 +8982,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -8857,7 +9023,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -8898,7 +9064,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -8939,7 +9105,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -8980,7 +9146,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9021,7 +9187,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9062,7 +9228,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9103,7 +9269,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9144,7 +9310,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9185,7 +9351,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9226,7 +9392,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9267,7 +9433,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9308,7 +9474,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9349,7 +9515,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9390,7 +9556,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9431,7 +9597,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9472,7 +9638,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9513,7 +9679,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9554,7 +9720,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9595,7 +9761,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9636,7 +9802,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9677,7 +9843,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9718,7 +9884,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -9759,7 +9925,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -9800,7 +9966,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -9841,7 +10007,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -9882,7 +10048,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -9923,7 +10089,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -9964,7 +10130,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10005,7 +10171,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10046,7 +10212,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10087,7 +10253,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10128,7 +10294,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10169,7 +10335,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10210,7 +10376,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10251,7 +10417,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10292,7 +10458,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10333,7 +10499,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10374,7 +10540,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10415,7 +10581,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10456,7 +10622,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10497,7 +10663,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10538,7 +10704,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10579,7 +10745,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10620,7 +10786,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10661,7 +10827,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10702,7 +10868,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10743,7 +10909,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10784,7 +10950,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10825,7 +10991,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10866,7 +11032,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -10907,7 +11073,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -10948,7 +11114,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -10989,7 +11155,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11030,7 +11196,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11071,7 +11237,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11112,7 +11278,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11153,7 +11319,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11194,7 +11360,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11235,7 +11401,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11276,7 +11442,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11317,7 +11483,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11358,7 +11524,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11399,7 +11565,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11440,7 +11606,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11481,7 +11647,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11522,7 +11688,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11563,7 +11729,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11604,7 +11770,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11645,7 +11811,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11686,7 +11852,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11727,7 +11893,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11768,7 +11934,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11809,7 +11975,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11850,7 +12016,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11891,7 +12057,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11932,7 +12098,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11973,7 +12139,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12014,7 +12180,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12055,7 +12221,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12096,7 +12262,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12137,7 +12303,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -12178,7 +12344,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -12219,7 +12385,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -12260,7 +12426,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -12301,7 +12467,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12342,7 +12508,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12383,7 +12549,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12424,7 +12590,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12465,7 +12631,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12506,7 +12672,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12547,7 +12713,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12588,7 +12754,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12629,7 +12795,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12670,7 +12836,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12711,7 +12877,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12752,7 +12918,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12793,7 +12959,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12834,7 +13000,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12875,7 +13041,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12916,7 +13082,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12957,7 +13123,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12998,7 +13164,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -13039,7 +13205,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -13080,7 +13246,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -13121,7 +13287,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -13162,7 +13328,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -13203,7 +13369,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -13244,7 +13410,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -13285,7 +13451,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -13326,7 +13492,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -13367,7 +13533,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -13408,7 +13574,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -13449,7 +13615,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -13490,7 +13656,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -13531,7 +13697,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -13572,7 +13738,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13613,7 +13779,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -13654,7 +13820,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -13695,7 +13861,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -13736,7 +13902,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -13777,7 +13943,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -13818,7 +13984,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -13859,7 +14025,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -13900,7 +14066,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -13941,7 +14107,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -13982,7 +14148,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -14023,7 +14189,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -14060,19 +14226,19 @@
         <v>0</v>
       </c>
       <c r="I364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>1.025501089324619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -14101,11 +14267,17 @@
         <v>0</v>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14136,11 +14308,17 @@
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14171,11 +14349,17 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14206,11 +14390,17 @@
         <v>0</v>
       </c>
       <c r="I368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14244,8 +14434,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +14472,17 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14314,8 +14516,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14349,8 +14557,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14384,8 +14598,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14419,8 +14639,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14451,13 +14677,19 @@
         <v>0</v>
       </c>
       <c r="I375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M375" t="n">
-        <v>1</v>
+        <v>1.02530303030303</v>
       </c>
     </row>
     <row r="376">
@@ -14486,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
@@ -14731,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
@@ -14766,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
@@ -14976,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ADA.xlsx
+++ b/BackTest/2019-10-27 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>180912.5967</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>235744.3727</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>217069.9946</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>127369.9844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>128550.3569</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>140586.1779</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>137486.8255</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>139317.193</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>139317.193</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>139317.193</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>153717.193</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>153154.0743</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>155319.1999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>160695.5999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>162078.0362</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>162078.0362</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>159843.6178</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>153979.1852</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>156369.1852</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>153979.1852</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>153979.1852</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>151779.1852</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>153637.7902</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>152476.8736</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>152476.8736</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>150998.6578</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>152515.8306</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>152515.8306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>153157.1632</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>116069.8146</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>115099.8146</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>114458.2112</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>114458.2112</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>114690.7742</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>114042.668</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>114062.4334</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>113534.0926</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>113534.0926</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>114101.5764</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>113351.7968</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>134402.357</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>136026.8228</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>129271.7438</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>130971.7438</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>132810.517</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>132810.517</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>129738.62378245</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>129910.57168245</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>129350.12098245</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>129350.12098245</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>131161.32098245</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>131161.32098245</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>130187.18048245</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>153283.27608245</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>156963.24198245</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>155202.78368245</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>149759.55548245</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>150910.01378245</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>153300.01378245</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>153300.01378245</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>152549.62868245</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>152549.62868245</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>152089.62868245</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>152054.06338245</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>152085.06338245</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>152085.06338245</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>125060.60298245</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>124369.00868245</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>124369.00868245</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>124369.00868245</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>92840.90348245001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>92840.90348245001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>92840.90348245001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>91253.81048245002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-55425.64451754997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-55425.64451754997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-30156.81281754997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-25855.51031754997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-42698.13971754997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-42698.13971754997</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-74400.62231754996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-59986.26301754997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-29986.26301754997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-29986.26301754997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-29986.26301754997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-31143.22921754996</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>2061.736442270022</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>2071.736442270022</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>2071.736442270022</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>2071.736442270022</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1070.408542270022</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1720.408542270022</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>8325.090642270023</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>8325.090642270023</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>7700.100842270022</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>24849.14944227002</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>11670.24984227002</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>20120.24984227002</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>21959.33124227002</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>224.9032422700184</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-17076.45655772998</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-14984.05655772998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-14984.05655772998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-16235.50705772998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-16235.50705772998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-15685.50705772998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5635.507057729981</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5635.507057729981</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-6506.942057729981</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-6506.942057729981</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>40921.52094227002</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>40304.51884227002</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>40304.51884227002</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>57483.07024227003</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>56967.40774227003</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>49024.15324227003</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1976.632342270022</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>25056.19434227002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>25056.19434227002</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>21726.50214227002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>21935.79994227002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>15878.67434227002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>15878.67434227002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>15878.67434227002</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>14835.94634227002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>18812.25214227002</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-213529.00745773</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-259317.97995773</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-259317.97995773</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-259206.43825773</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-260207.08375773</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-255924.42851148</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-651676.97211148</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9064,10 +9064,14 @@
         <v>-563804.4107114801</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="J263" t="n">
+        <v>46.2</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9100,8 +9104,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9143,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9262,10 +9278,14 @@
         <v>-582380.6452114801</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>46.2</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9295,11 +9315,19 @@
         <v>-582380.6452114801</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9356,19 @@
         <v>-582163.6452114801</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,10 +9397,14 @@
         <v>-582254.9857114801</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="J272" t="n">
+        <v>46.2</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9394,11 +9434,19 @@
         <v>-582254.9857114801</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9475,19 @@
         <v>-727953.2626114802</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,10 +9516,14 @@
         <v>-735821.5093114802</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>46</v>
+      </c>
+      <c r="J275" t="n">
+        <v>46</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -9493,11 +9553,19 @@
         <v>-734532.6038114802</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J276" t="n">
+        <v>46</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9594,19 @@
         <v>-748479.4190114802</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>46</v>
+      </c>
+      <c r="J277" t="n">
+        <v>46</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9635,19 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J278" t="n">
+        <v>46</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,7 +9676,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>46</v>
@@ -9600,7 +9684,11 @@
       <c r="J279" t="n">
         <v>46</v>
       </c>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +9717,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>46</v>
@@ -9639,7 +9727,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L280" t="n">
@@ -9670,7 +9758,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>46</v>
@@ -9680,7 +9768,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L281" t="n">
@@ -9711,7 +9799,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>46</v>
@@ -9719,7 +9807,11 @@
       <c r="J282" t="n">
         <v>46</v>
       </c>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9748,7 +9840,7 @@
         <v>-744572.9528114802</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>46</v>
@@ -9758,7 +9850,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L283" t="n">
@@ -9789,7 +9881,7 @@
         <v>-733572.9528114802</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>46.1</v>
@@ -9799,7 +9891,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L284" t="n">
@@ -9830,7 +9922,7 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>46.2</v>
@@ -9840,7 +9932,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -9871,7 +9963,7 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>46.4</v>
@@ -9912,7 +10004,7 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>46.4</v>
@@ -9953,7 +10045,7 @@
         <v>-693088.0751114802</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>46.4</v>
@@ -10150,9 +10242,11 @@
         <v>-617230.0637114801</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J293" t="n">
         <v>46</v>
       </c>
@@ -10501,7 +10595,7 @@
         <v>-613784.9363114801</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
@@ -10579,7 +10673,7 @@
         <v>-573776.8338114801</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
@@ -10618,7 +10712,7 @@
         <v>-574619.6338114801</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
@@ -10657,7 +10751,7 @@
         <v>-571632.1648114801</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
@@ -10696,7 +10790,7 @@
         <v>-572752.3100114801</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
@@ -10735,7 +10829,7 @@
         <v>-572243.3100114801</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
@@ -10774,7 +10868,7 @@
         <v>-634333.4339114801</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
@@ -10930,9 +11024,11 @@
         <v>-632384.3339114801</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J313" t="n">
         <v>46</v>
       </c>
@@ -10969,11 +11065,9 @@
         <v>-651347.6339114802</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>46.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
         <v>46</v>
       </c>
@@ -11010,9 +11104,11 @@
         <v>-635807.2441114802</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J315" t="n">
         <v>46</v>
       </c>
@@ -11049,9 +11145,11 @@
         <v>-647965.5647114802</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J316" t="n">
         <v>46</v>
       </c>
@@ -11088,9 +11186,11 @@
         <v>-647965.5647114802</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>46.5</v>
+      </c>
       <c r="J317" t="n">
         <v>46</v>
       </c>
@@ -11127,9 +11227,11 @@
         <v>-648441.7785114802</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>46.5</v>
+      </c>
       <c r="J318" t="n">
         <v>46</v>
       </c>
@@ -11166,9 +11268,11 @@
         <v>-648441.7785114802</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J319" t="n">
         <v>46</v>
       </c>
@@ -11205,9 +11309,11 @@
         <v>-634572.2043114802</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J320" t="n">
         <v>46</v>
       </c>
@@ -11244,9 +11350,11 @@
         <v>-635622.6487114802</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>46.5</v>
+      </c>
       <c r="J321" t="n">
         <v>46</v>
       </c>
@@ -11283,9 +11391,11 @@
         <v>-631988.2401114802</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J322" t="n">
         <v>46</v>
       </c>
@@ -11322,9 +11432,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>46.5</v>
+      </c>
       <c r="J323" t="n">
         <v>46</v>
       </c>
@@ -11361,9 +11473,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J324" t="n">
         <v>46</v>
       </c>
@@ -11400,9 +11514,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J325" t="n">
         <v>46</v>
       </c>
@@ -11439,9 +11555,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J326" t="n">
         <v>46</v>
       </c>
@@ -11478,9 +11596,11 @@
         <v>-679593.8641114802</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J327" t="n">
         <v>46</v>
       </c>
@@ -11517,9 +11637,11 @@
         <v>-679442.5980170602</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J328" t="n">
         <v>46</v>
       </c>
@@ -11556,9 +11678,11 @@
         <v>-680846.5878170602</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J329" t="n">
         <v>46</v>
       </c>
@@ -11595,9 +11719,11 @@
         <v>-687060.9902170602</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J330" t="n">
         <v>46</v>
       </c>
@@ -11634,9 +11760,11 @@
         <v>-678212.5752170602</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J331" t="n">
         <v>46</v>
       </c>
@@ -11673,9 +11801,11 @@
         <v>-676056.9193170602</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J332" t="n">
         <v>46</v>
       </c>
@@ -11712,9 +11842,11 @@
         <v>-677201.0316170602</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>46.5</v>
+      </c>
       <c r="J333" t="n">
         <v>46</v>
       </c>
@@ -11751,9 +11883,11 @@
         <v>-677201.0316170602</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J334" t="n">
         <v>46</v>
       </c>
@@ -11790,9 +11924,11 @@
         <v>-676541.4832299702</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J335" t="n">
         <v>46</v>
       </c>
@@ -11868,9 +12004,11 @@
         <v>-680722.2768299702</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J337" t="n">
         <v>46</v>
       </c>
@@ -11946,9 +12084,11 @@
         <v>-680722.2768299702</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J339" t="n">
         <v>46</v>
       </c>
@@ -11985,9 +12125,11 @@
         <v>-680722.2768299702</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J340" t="n">
         <v>46</v>
       </c>
@@ -12024,9 +12166,11 @@
         <v>-645382.2056299702</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J341" t="n">
         <v>46</v>
       </c>
@@ -15222,7 +15366,7 @@
         <v>-547106.6986299704</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
@@ -15230,11 +15374,11 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L423" t="n">
-        <v>1.023260869565217</v>
+        <v>1</v>
       </c>
       <c r="M423" t="inlineStr"/>
     </row>
@@ -15261,11 +15405,17 @@
         <v>-547106.6986299704</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>46</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15294,11 +15444,17 @@
         <v>-544786.0024299704</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>46</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15327,11 +15483,17 @@
         <v>-551486.0024299704</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>46</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15360,11 +15522,17 @@
         <v>-491299.8957299704</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>46</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15396,8 +15564,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>46</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15426,11 +15600,17 @@
         <v>-466038.8262299704</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>46</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15459,11 +15639,17 @@
         <v>-466038.8262299704</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>46</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15492,11 +15678,17 @@
         <v>-466038.8262299704</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>46</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15525,11 +15717,17 @@
         <v>-466038.8262299704</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>46</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15558,11 +15756,17 @@
         <v>-424213.5531299704</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>46</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15591,11 +15795,17 @@
         <v>-424213.5531299704</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>46</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15624,11 +15834,17 @@
         <v>-424213.5531299704</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>46</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15657,11 +15873,17 @@
         <v>-424213.5531299704</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>46</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15690,11 +15912,17 @@
         <v>-424203.5531299704</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>46</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15723,11 +15951,17 @@
         <v>-413178.4367299704</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>46</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +15990,17 @@
         <v>-413178.4367299704</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>46</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15789,11 +16029,17 @@
         <v>-410145.1191299704</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>46</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15822,11 +16068,17 @@
         <v>-448348.1179299704</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>46</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15855,11 +16107,17 @@
         <v>-440589.1120299704</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>46</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15888,11 +16146,17 @@
         <v>-440589.1120299704</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>46</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15921,11 +16185,17 @@
         <v>-440589.1120299704</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>46</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15954,11 +16224,17 @@
         <v>-80377.20612997044</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>46</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15987,11 +16263,17 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>46</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16020,11 +16302,17 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>46</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16053,11 +16341,17 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>46</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16086,13 +16380,19 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>46</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L449" t="n">
-        <v>1</v>
+        <v>1.038478260869565</v>
       </c>
       <c r="M449" t="inlineStr"/>
     </row>
@@ -16119,7 +16419,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16152,7 +16452,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16185,7 +16485,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16218,7 +16518,7 @@
         <v>-350342.1523299704</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16251,7 +16551,7 @@
         <v>-341588.8418299704</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16350,7 +16650,7 @@
         <v>-339493.7137299704</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16383,7 +16683,7 @@
         <v>-339493.7137299704</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16416,7 +16716,7 @@
         <v>-291865.1870299705</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16449,7 +16749,7 @@
         <v>-291865.1870299705</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16482,7 +16782,7 @@
         <v>-278804.1304299704</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16515,7 +16815,7 @@
         <v>-278804.1304299704</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16548,7 +16848,7 @@
         <v>-295078.8631299704</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16581,7 +16881,7 @@
         <v>-295078.8631299704</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16614,7 +16914,7 @@
         <v>-294537.0061299704</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16647,7 +16947,7 @@
         <v>-294537.0061299704</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16680,7 +16980,7 @@
         <v>-295560.3811299704</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16713,7 +17013,7 @@
         <v>-327003.9595299704</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16746,7 +17046,7 @@
         <v>-314771.6524299704</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16779,7 +17079,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16812,7 +17112,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16845,7 +17145,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16878,7 +17178,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16911,7 +17211,7 @@
         <v>-345583.6981299705</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16944,7 +17244,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16977,7 +17277,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17010,7 +17310,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17043,7 +17343,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17076,7 +17376,7 @@
         <v>-392708.8745299705</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17109,7 +17409,7 @@
         <v>-397804.1401299704</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17142,7 +17442,7 @@
         <v>-397804.1401299704</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17175,7 +17475,7 @@
         <v>-397804.1401299704</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17208,7 +17508,7 @@
         <v>-378754.1401299704</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17241,7 +17541,7 @@
         <v>-378882.2043299705</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17274,7 +17574,7 @@
         <v>-393839.8466299705</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17285,6 +17585,6 @@
       <c r="M485" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ADA.xlsx
+++ b/BackTest/2019-10-27 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>180912.5967</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>235744.3727</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>217069.9946</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>127369.9844</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>128550.3569</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>140586.1779</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>137486.8255</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>139317.193</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>139317.193</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>139317.193</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>153717.193</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>153154.0743</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>155319.1999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>160695.5999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>162078.0362</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>162078.0362</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>153979.1852</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>156369.1852</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>153979.1852</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>153979.1852</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>153637.7902</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>152476.8736</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>152476.8736</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>150998.6578</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>152515.8306</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>152515.8306</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>153157.1632</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>116069.8146</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>115099.8146</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>114458.2112</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>114458.2112</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>114690.7742</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>114042.668</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>114062.4334</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>113534.0926</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>113534.0926</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>114101.5764</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>113351.7968</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>134402.357</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>136026.8228</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>129271.7438</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>130971.7438</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>132810.517</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>134311.57408245</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>129738.62378245</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>129910.57168245</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>129350.12098245</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>129350.12098245</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>131161.32098245</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>131161.32098245</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>130187.18048245</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>153283.27608245</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>156963.24198245</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>155202.78368245</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>149759.55548245</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>150910.01378245</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>153300.01378245</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>153300.01378245</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>152549.62868245</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>152549.62868245</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>152089.62868245</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>152054.06338245</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>152085.06338245</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>152085.06338245</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>125060.60298245</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>124369.00868245</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>124369.00868245</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>124369.00868245</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>92840.90348245001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>92840.90348245001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>92840.90348245001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>91253.81048245002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-55425.64451754997</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-55425.64451754997</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-30156.81281754997</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-25855.51031754997</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-42698.13971754997</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-42698.13971754997</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-74400.62231754996</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-59986.26301754997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-29986.26301754997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-29986.26301754997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-29986.26301754997</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-31143.22921754996</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>32480.64084227003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1061.736442270022</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>2061.736442270022</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>2071.736442270022</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>2071.736442270022</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>2071.736442270022</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1070.408542270022</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1720.408542270022</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>8325.090642270023</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>8325.090642270023</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>7700.100842270022</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>24849.14944227002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>20120.24984227002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>21959.33124227002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>224.9032422700184</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-17076.45655772998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-14984.05655772998</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-14984.05655772998</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-16235.50705772998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-16235.50705772998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-15685.50705772998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5635.507057729981</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5635.507057729981</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-6506.942057729981</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-6506.942057729981</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>40921.52094227002</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>40304.51884227002</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>40304.51884227002</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>57483.07024227003</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>56967.40774227003</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>49024.15324227003</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>25056.19434227002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>25056.19434227002</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>21726.50214227002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>21935.79994227002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>15878.67434227002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>15878.67434227002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>15878.67434227002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>14835.94634227002</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>15975.41014227002</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>18812.25214227002</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-213529.00745773</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-259317.97995773</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-259317.97995773</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-259206.43825773</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-260207.08375773</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-255924.42851148</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-651676.97211148</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9064,14 +9064,10 @@
         <v>-563804.4107114801</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J263" t="n">
-        <v>46.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9104,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9143,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9278,14 +9262,10 @@
         <v>-582380.6452114801</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J269" t="n">
-        <v>46.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9315,19 +9295,11 @@
         <v>-582380.6452114801</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J270" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9356,19 +9328,11 @@
         <v>-582163.6452114801</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J271" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9397,14 +9361,10 @@
         <v>-582254.9857114801</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J272" t="n">
-        <v>46.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9434,19 +9394,11 @@
         <v>-582254.9857114801</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J273" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9475,19 +9427,11 @@
         <v>-727953.2626114802</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J274" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9516,14 +9460,10 @@
         <v>-735821.5093114802</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>46</v>
-      </c>
-      <c r="J275" t="n">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -9559,13 +9499,9 @@
         <v>45.9</v>
       </c>
       <c r="J276" t="n">
-        <v>46</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>45.9</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9600,7 +9536,7 @@
         <v>46</v>
       </c>
       <c r="J277" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9641,7 +9577,7 @@
         <v>45.9</v>
       </c>
       <c r="J278" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9682,7 +9618,7 @@
         <v>46</v>
       </c>
       <c r="J279" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9723,7 +9659,7 @@
         <v>46</v>
       </c>
       <c r="J280" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9764,7 +9700,7 @@
         <v>46</v>
       </c>
       <c r="J281" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9805,7 +9741,7 @@
         <v>46</v>
       </c>
       <c r="J282" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9846,7 +9782,7 @@
         <v>46</v>
       </c>
       <c r="J283" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9887,7 +9823,7 @@
         <v>46.1</v>
       </c>
       <c r="J284" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9928,7 +9864,7 @@
         <v>46.2</v>
       </c>
       <c r="J285" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9963,13 +9899,11 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>46.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10004,13 +9938,11 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>46.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10045,13 +9977,11 @@
         <v>-693088.0751114802</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>46.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10090,7 +10020,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10129,7 +10059,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10168,7 +10098,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10207,7 +10137,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10242,13 +10172,11 @@
         <v>-617230.0637114801</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>46.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10287,7 +10215,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10326,7 +10254,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10365,7 +10293,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10404,7 +10332,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10443,7 +10371,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10482,7 +10410,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10521,7 +10449,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10560,7 +10488,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10599,7 +10527,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10638,7 +10566,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10677,7 +10605,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10712,19 +10640,19 @@
         <v>-574619.6338114801</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L305" t="n">
-        <v>1</v>
+        <v>1.016786492374728</v>
       </c>
       <c r="M305" t="inlineStr"/>
     </row>
@@ -10751,17 +10679,11 @@
         <v>-571632.1648114801</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>46</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10790,17 +10712,11 @@
         <v>-572752.3100114801</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>46</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10829,17 +10745,11 @@
         <v>-572243.3100114801</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>46</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10868,17 +10778,11 @@
         <v>-634333.4339114801</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>46</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10907,17 +10811,11 @@
         <v>-634824.3339114801</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>46</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10949,14 +10847,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>46</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10988,14 +10880,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>46</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11024,19 +10910,11 @@
         <v>-632384.3339114801</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J313" t="n">
-        <v>46</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11068,14 +10946,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>46</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11104,19 +10976,11 @@
         <v>-635807.2441114802</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J315" t="n">
-        <v>46</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11145,19 +11009,11 @@
         <v>-647965.5647114802</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J316" t="n">
-        <v>46</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11186,19 +11042,11 @@
         <v>-647965.5647114802</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J317" t="n">
-        <v>46</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11227,19 +11075,11 @@
         <v>-648441.7785114802</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J318" t="n">
-        <v>46</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11268,19 +11108,11 @@
         <v>-648441.7785114802</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J319" t="n">
-        <v>46</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11309,19 +11141,11 @@
         <v>-634572.2043114802</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J320" t="n">
-        <v>46</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11350,19 +11174,11 @@
         <v>-635622.6487114802</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J321" t="n">
-        <v>46</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11391,19 +11207,11 @@
         <v>-631988.2401114802</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J322" t="n">
-        <v>46</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11432,19 +11240,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J323" t="n">
-        <v>46</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11473,19 +11273,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J324" t="n">
-        <v>46</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11514,19 +11306,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J325" t="n">
-        <v>46</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11555,19 +11339,11 @@
         <v>-653937.7957114802</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J326" t="n">
-        <v>46</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11596,19 +11372,11 @@
         <v>-679593.8641114802</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J327" t="n">
-        <v>46</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11637,19 +11405,11 @@
         <v>-679442.5980170602</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J328" t="n">
-        <v>46</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11678,19 +11438,11 @@
         <v>-680846.5878170602</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J329" t="n">
-        <v>46</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11719,19 +11471,11 @@
         <v>-687060.9902170602</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J330" t="n">
-        <v>46</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11760,19 +11504,11 @@
         <v>-678212.5752170602</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J331" t="n">
-        <v>46</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11801,19 +11537,11 @@
         <v>-676056.9193170602</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J332" t="n">
-        <v>46</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11842,19 +11570,11 @@
         <v>-677201.0316170602</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J333" t="n">
-        <v>46</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11883,19 +11603,11 @@
         <v>-677201.0316170602</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J334" t="n">
-        <v>46</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11924,19 +11636,11 @@
         <v>-676541.4832299702</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J335" t="n">
-        <v>46</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +11672,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>46</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12004,19 +11702,11 @@
         <v>-680722.2768299702</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J337" t="n">
-        <v>46</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12048,14 +11738,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>46</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12084,19 +11768,11 @@
         <v>-680722.2768299702</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J339" t="n">
-        <v>46</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12125,19 +11801,11 @@
         <v>-680722.2768299702</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J340" t="n">
-        <v>46</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12166,19 +11834,11 @@
         <v>-645382.2056299702</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J341" t="n">
-        <v>46</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12210,14 +11870,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>46</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12249,14 +11903,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>46</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12288,14 +11936,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>46</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12327,14 +11969,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>46</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12366,14 +12002,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>46</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12405,14 +12035,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>46</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12444,14 +12068,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>46</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12483,14 +12101,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>46</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12522,14 +12134,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>46</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12561,14 +12167,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>46</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12600,14 +12200,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>46</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12639,14 +12233,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>46</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12678,14 +12266,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>46</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12717,14 +12299,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>46</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12756,14 +12332,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>46</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12795,14 +12365,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>46</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12834,14 +12398,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>46</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12873,14 +12431,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>46</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12912,14 +12464,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>46</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12951,14 +12497,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>46</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12990,14 +12530,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>46</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13029,14 +12563,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>46</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13068,14 +12596,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>46</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13107,14 +12629,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>46</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13146,14 +12662,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>46</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13185,14 +12695,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>46</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13224,14 +12728,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>46</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13263,14 +12761,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>46</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13302,14 +12794,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>46</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13341,14 +12827,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>46</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13380,14 +12860,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>46</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13419,14 +12893,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>46</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13458,14 +12926,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>46</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13497,14 +12959,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>46</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13536,14 +12992,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>46</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13575,14 +13025,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>46</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13614,14 +13058,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>46</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13653,14 +13091,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>46</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13692,14 +13124,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>46</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13731,14 +13157,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>46</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13770,14 +13190,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>46</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13809,14 +13223,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>46</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13848,14 +13256,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>46</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13887,14 +13289,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>46</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13926,14 +13322,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>46</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13965,14 +13355,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>46</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14001,17 +13385,11 @@
         <v>-516161.0844299704</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>46</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14043,14 +13421,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>46</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14079,17 +13451,11 @@
         <v>-488474.5907299704</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>46</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14121,14 +13487,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>46</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14157,17 +13517,11 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>46</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14199,14 +13553,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>46</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14238,14 +13586,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>46</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14274,17 +13616,11 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>46</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14313,17 +13649,11 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>46</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14355,14 +13685,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>46</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14394,14 +13718,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>46</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14430,17 +13748,11 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>46</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14469,17 +13781,11 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>46</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14511,14 +13817,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>46</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14550,14 +13850,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>46</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14589,14 +13883,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>46</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14628,14 +13916,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>46</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14667,14 +13949,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>46</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14706,14 +13982,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>46</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14745,14 +14015,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>46</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14781,17 +14045,11 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>46</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14820,17 +14078,11 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>46</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14859,17 +14111,11 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>46</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14898,17 +14144,11 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>46</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14937,17 +14177,11 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>46</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14976,17 +14210,11 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>46</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15015,17 +14243,11 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>46</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15054,17 +14276,11 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>46</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15093,17 +14309,11 @@
         <v>-506513.1249299704</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>46</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15132,17 +14342,11 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>46</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15171,17 +14375,11 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>46</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15210,17 +14408,11 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>46</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15249,17 +14441,11 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>46</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15288,17 +14474,11 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>46</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15327,17 +14507,11 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>46</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15369,14 +14543,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>46</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15408,14 +14576,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>46</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15447,14 +14609,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>46</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15486,14 +14642,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>46</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15525,14 +14675,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>46</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15564,14 +14708,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>46</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15603,14 +14741,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>46</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15642,14 +14774,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>46</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15681,14 +14807,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>46</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15720,14 +14840,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>46</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15759,14 +14873,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>46</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15798,14 +14906,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>46</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15837,14 +14939,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>46</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15876,14 +14972,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>46</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15915,14 +15005,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>46</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15954,14 +15038,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>46</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15993,14 +15071,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>46</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16032,14 +15104,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>46</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16071,14 +15137,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>46</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16110,14 +15170,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>46</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16149,14 +15203,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>46</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16188,14 +15236,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>46</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16227,14 +15269,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>46</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16266,14 +15302,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>46</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16305,14 +15335,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>46</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16344,14 +15368,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>46</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16380,19 +15398,13 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>46</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
-        <v>1.038478260869565</v>
+        <v>1</v>
       </c>
       <c r="M449" t="inlineStr"/>
     </row>
@@ -16419,7 +15431,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16452,7 +15464,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16485,7 +15497,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16518,7 +15530,7 @@
         <v>-350342.1523299704</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16551,7 +15563,7 @@
         <v>-341588.8418299704</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16650,7 +15662,7 @@
         <v>-339493.7137299704</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16683,7 +15695,7 @@
         <v>-339493.7137299704</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16716,7 +15728,7 @@
         <v>-291865.1870299705</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16749,7 +15761,7 @@
         <v>-291865.1870299705</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16782,7 +15794,7 @@
         <v>-278804.1304299704</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16815,7 +15827,7 @@
         <v>-278804.1304299704</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16848,7 +15860,7 @@
         <v>-295078.8631299704</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16881,7 +15893,7 @@
         <v>-295078.8631299704</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16914,7 +15926,7 @@
         <v>-294537.0061299704</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16947,7 +15959,7 @@
         <v>-294537.0061299704</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16980,7 +15992,7 @@
         <v>-295560.3811299704</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17013,7 +16025,7 @@
         <v>-327003.9595299704</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17046,7 +16058,7 @@
         <v>-314771.6524299704</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17079,7 +16091,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17112,7 +16124,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17145,7 +16157,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17178,7 +16190,7 @@
         <v>-334827.3276299704</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17211,7 +16223,7 @@
         <v>-345583.6981299705</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17244,7 +16256,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17277,7 +16289,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17310,7 +16322,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17343,7 +16355,7 @@
         <v>-364444.9833299704</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17376,7 +16388,7 @@
         <v>-392708.8745299705</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17409,7 +16421,7 @@
         <v>-397804.1401299704</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17442,7 +16454,7 @@
         <v>-397804.1401299704</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17475,7 +16487,7 @@
         <v>-397804.1401299704</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17508,7 +16520,7 @@
         <v>-378754.1401299704</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17541,7 +16553,7 @@
         <v>-378882.2043299705</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17574,7 +16586,7 @@
         <v>-393839.8466299705</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17585,6 +16597,6 @@
       <c r="M485" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ADA.xlsx
+++ b/BackTest/2019-10-27 BackTest ADA.xlsx
@@ -1012,7 +1012,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>159843.6178</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>132810.517</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>134311.57408245</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>32480.64084227003</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>11670.24984227002</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1976.632342270022</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -9493,14 +9493,10 @@
         <v>-734532.6038114802</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J276" t="n">
-        <v>45.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
@@ -9530,183 +9526,155 @@
         <v>-748479.4190114802</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C278" t="n">
         <v>46</v>
       </c>
-      <c r="J277" t="n">
+      <c r="D278" t="n">
+        <v>46</v>
+      </c>
+      <c r="E278" t="n">
         <v>45.9</v>
       </c>
-      <c r="K277" t="inlineStr">
+      <c r="F278" t="n">
+        <v>1706.4662</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-746772.9528114802</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>46</v>
+      </c>
+      <c r="C279" t="n">
+        <v>46</v>
+      </c>
+      <c r="D279" t="n">
+        <v>46</v>
+      </c>
+      <c r="E279" t="n">
+        <v>46</v>
+      </c>
+      <c r="F279" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-746772.9528114802</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>46</v>
+      </c>
+      <c r="C280" t="n">
+        <v>46</v>
+      </c>
+      <c r="D280" t="n">
+        <v>46</v>
+      </c>
+      <c r="E280" t="n">
+        <v>46</v>
+      </c>
+      <c r="F280" t="n">
+        <v>10008.0306</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-746772.9528114802</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>46</v>
+      </c>
+      <c r="J280" t="n">
+        <v>46</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>46</v>
+      </c>
+      <c r="C281" t="n">
+        <v>46</v>
+      </c>
+      <c r="D281" t="n">
+        <v>46</v>
+      </c>
+      <c r="E281" t="n">
+        <v>46</v>
+      </c>
+      <c r="F281" t="n">
+        <v>7407.71</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-746772.9528114802</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>46</v>
+      </c>
+      <c r="J281" t="n">
+        <v>46</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C278" t="n">
-        <v>46</v>
-      </c>
-      <c r="D278" t="n">
-        <v>46</v>
-      </c>
-      <c r="E278" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1706.4662</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-746772.9528114802</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J278" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>46</v>
-      </c>
-      <c r="C279" t="n">
-        <v>46</v>
-      </c>
-      <c r="D279" t="n">
-        <v>46</v>
-      </c>
-      <c r="E279" t="n">
-        <v>46</v>
-      </c>
-      <c r="F279" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-746772.9528114802</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>46</v>
-      </c>
-      <c r="J279" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>46</v>
-      </c>
-      <c r="C280" t="n">
-        <v>46</v>
-      </c>
-      <c r="D280" t="n">
-        <v>46</v>
-      </c>
-      <c r="E280" t="n">
-        <v>46</v>
-      </c>
-      <c r="F280" t="n">
-        <v>10008.0306</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-746772.9528114802</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>46</v>
-      </c>
-      <c r="J280" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>46</v>
-      </c>
-      <c r="C281" t="n">
-        <v>46</v>
-      </c>
-      <c r="D281" t="n">
-        <v>46</v>
-      </c>
-      <c r="E281" t="n">
-        <v>46</v>
-      </c>
-      <c r="F281" t="n">
-        <v>7407.71</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-746772.9528114802</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>46</v>
-      </c>
-      <c r="J281" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9741,11 +9709,11 @@
         <v>46</v>
       </c>
       <c r="J282" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9782,13 +9750,9 @@
         <v>46</v>
       </c>
       <c r="J283" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9787,11 @@
         <v>46.1</v>
       </c>
       <c r="J284" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L284" t="n">
@@ -9864,11 +9828,11 @@
         <v>46.2</v>
       </c>
       <c r="J285" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -9899,17 +9863,15 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J286" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>46.4</v>
+      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9938,15 +9900,17 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J287" t="n">
-        <v>45.9</v>
+        <v>46.4</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L287" t="n">
@@ -9977,15 +9941,17 @@
         <v>-693088.0751114802</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J288" t="n">
-        <v>45.9</v>
+        <v>46.4</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L288" t="n">
@@ -10019,14 +9985,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10058,14 +10018,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10097,14 +10051,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10136,14 +10084,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10175,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10214,14 +10150,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10253,14 +10183,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10292,14 +10216,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10331,14 +10249,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10370,14 +10282,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10409,14 +10315,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10448,14 +10348,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10487,14 +10381,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10526,14 +10414,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10565,14 +10447,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10604,14 +10480,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10640,19 +10510,13 @@
         <v>-574619.6338114801</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
-        <v>1.016786492374728</v>
+        <v>1</v>
       </c>
       <c r="M305" t="inlineStr"/>
     </row>
@@ -10679,7 +10543,7 @@
         <v>-571632.1648114801</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10712,7 +10576,7 @@
         <v>-572752.3100114801</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10745,7 +10609,7 @@
         <v>-572243.3100114801</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10778,7 +10642,7 @@
         <v>-634333.4339114801</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10811,7 +10675,7 @@
         <v>-634824.3339114801</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -13385,7 +13249,7 @@
         <v>-516161.0844299704</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13451,7 +13315,7 @@
         <v>-488474.5907299704</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13517,7 +13381,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13616,7 +13480,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13649,7 +13513,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13748,7 +13612,7 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13781,7 +13645,7 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14045,7 +13909,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14078,7 +13942,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14111,7 +13975,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14144,7 +14008,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14177,7 +14041,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14210,7 +14074,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14243,7 +14107,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14276,7 +14140,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14309,7 +14173,7 @@
         <v>-506513.1249299704</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14342,7 +14206,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14375,7 +14239,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14408,7 +14272,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14441,7 +14305,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14474,7 +14338,7 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14507,7 +14371,7 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15299,7 +15163,7 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15332,7 +15196,7 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15365,7 +15229,7 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15398,7 +15262,7 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15431,7 +15295,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
